--- a/VerveStacks_AUS/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_AUS/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05196CC0-F646-4B16-912C-879C6AF85A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61B727-1436-4F3D-A6FB-8ADDFCCA696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_AUS/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_AUS/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61B727-1436-4F3D-A6FB-8ADDFCCA696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA64B2-1181-46AC-91E9-3B287A08CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,20 +370,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1510,7 +1510,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>180.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>179.88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>171.86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>66</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>173.61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>178.96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>27.36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>66</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>182.98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>15.47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>66</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>185.76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>8</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>66</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>185.49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>9</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>66</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>184.24</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>6</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>182.02</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>66</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>5</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>176.02</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>46.79</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>6</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>23</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>9</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>66</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>171.98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>6</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>23</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
         <v>9</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>12</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>66</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>165.38</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>49.81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>23</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>9</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>66</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>155.44999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>52.72</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>66</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>155.22999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>53.66</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="12" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
         <v>9</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
         <v>12</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>66</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="12" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="12" t="s">
         <v>9</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
         <v>12</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="12" t="s">
         <v>66</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>5</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>162.36000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="12" t="s">
         <v>8</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>48.11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
         <v>23</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>9</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="12" t="s">
         <v>12</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>66</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="12" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>159.16999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
         <v>8</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>23</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="12" t="s">
         <v>9</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>12</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="12" t="s">
         <v>66</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>156.56</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="12" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>6</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="12" t="s">
         <v>23</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
         <v>9</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="12" t="s">
         <v>12</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>66</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>149.84</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>8</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="12" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="s">
         <v>23</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="12" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>12</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
         <v>66</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>142.93</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="12" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>53.05</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>6</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="12" t="s">
         <v>23</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="12" t="s">
         <v>12</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="s">
         <v>66</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>137.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>47.63</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="12" t="s">
         <v>6</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
         <v>23</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
         <v>12</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="12" t="s">
         <v>66</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>129.21</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="12" t="s">
         <v>8</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>6</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
         <v>23</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>9</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>37.54</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="12" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
         <v>66</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="12" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>125.61</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
         <v>8</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>15.26</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="12" t="s">
         <v>9</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="12" t="s">
         <v>66</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
         <v>8</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>6</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="12" t="s">
         <v>23</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
         <v>9</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="12" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>66</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
         <v>5</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="12" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
         <v>23</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
         <v>12</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="12" t="s">
         <v>66</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
         <v>5</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="12" t="s">
         <v>8</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>6</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="12" t="s">
         <v>23</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
         <v>12</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
         <v>66</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="12" t="s">
         <v>5</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
         <v>8</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="12" t="s">
         <v>6</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
         <v>9</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
         <v>66</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
         <v>5</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="12" t="s">
         <v>8</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
         <v>6</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="12" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
         <v>9</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="12" t="s">
         <v>12</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
         <v>66</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="12" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
         <v>6</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
         <v>23</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="s">
         <v>66</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
         <v>8</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="s">
         <v>6</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="s">
         <v>19</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D218" s="13"/>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
         <v>23</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="s">
         <v>9</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>12</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="s">
         <v>66</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="s">
         <v>23</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>9</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>12</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
         <v>66</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
         <v>8</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>23</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
         <v>9</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>12</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="s">
         <v>66</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
         <v>5</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="s">
         <v>8</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>6</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="s">
         <v>23</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
         <v>9</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
         <v>66</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
         <v>8</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
         <v>6</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
         <v>23</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
         <v>12</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="s">
         <v>66</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
         <v>5</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
         <v>8</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
         <v>6</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="s">
         <v>23</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
         <v>9</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>12</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="s">
         <v>5</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
         <v>8</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="s">
         <v>6</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
         <v>23</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="s">
         <v>9</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="s">
         <v>12</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
         <v>66</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="s">
         <v>5</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="s">
         <v>8</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
         <v>6</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="12" t="s">
         <v>23</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
         <v>12</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="s">
         <v>66</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="12" t="s">
         <v>5</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="12" t="s">
         <v>6</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
         <v>23</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="12" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="s">
         <v>12</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="12" t="s">
         <v>66</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
         <v>5</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="12" t="s">
         <v>8</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="s">
         <v>6</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
         <v>23</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
         <v>9</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="12" t="s">
         <v>12</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="s">
         <v>66</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="12" t="s">
         <v>5</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="s">
         <v>8</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
         <v>6</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="s">
         <v>23</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>9</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>12</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="12" t="s">
         <v>66</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="s">
         <v>5</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>8</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="s">
         <v>6</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>23</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
         <v>9</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="12" t="s">
         <v>12</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
         <v>66</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
         <v>5</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="s">
         <v>8</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="12" t="s">
         <v>6</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="s">
         <v>23</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="12" t="s">
         <v>9</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="s">
         <v>12</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
         <v>66</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
         <v>5</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="12" t="s">
         <v>8</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
         <v>6</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="12" t="s">
         <v>23</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="s">
         <v>9</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="12" t="s">
         <v>12</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="s">
         <v>66</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="12" t="s">
         <v>5</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
         <v>8</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="12" t="s">
         <v>6</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="s">
         <v>23</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
         <v>9</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="s">
         <v>12</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="12" t="s">
         <v>66</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="s">
         <v>5</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="12" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
         <v>6</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
         <v>23</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="s">
         <v>9</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="12" t="s">
         <v>12</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
         <v>66</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="12" t="s">
         <v>5</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="s">
         <v>8</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="12" t="s">
         <v>6</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
         <v>23</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="12" t="s">
         <v>9</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
         <v>12</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="12" t="s">
         <v>66</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="s">
         <v>5</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
         <v>8</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="s">
         <v>6</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="12" t="s">
         <v>23</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
         <v>9</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>12</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="s">
         <v>66</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>5</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>160.41</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="s">
         <v>8</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>6</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
         <v>23</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="12" t="s">
         <v>9</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
         <v>12</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="12" t="s">
         <v>66</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="s">
         <v>5</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="12" t="s">
         <v>8</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="12" t="s">
         <v>23</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="s">
         <v>9</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
         <v>12</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
         <v>66</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="12" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>152.49</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="s">
         <v>8</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="12" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="10" t="s">
         <v>23</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
         <v>9</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="10" t="s">
         <v>12</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="12" t="s">
         <v>66</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
         <v>5</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>153.80000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="12" t="s">
         <v>8</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="10" t="s">
         <v>6</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="12" t="s">
         <v>23</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="10" t="s">
         <v>9</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="12" t="s">
         <v>12</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
         <v>66</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="12" t="s">
         <v>5</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>158.38</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
         <v>8</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
         <v>6</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="10" t="s">
         <v>23</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="12" t="s">
         <v>9</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="10" t="s">
         <v>12</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="12" t="s">
         <v>66</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="10" t="s">
         <v>5</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>161.94</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>8</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
         <v>6</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="12" t="s">
         <v>23</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
         <v>9</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="12" t="s">
         <v>12</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="10" t="s">
         <v>66</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="12" t="s">
         <v>5</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>164.4</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="10" t="s">
         <v>8</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="12" t="s">
         <v>6</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
         <v>19</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="12" t="s">
         <v>23</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="10" t="s">
         <v>9</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
         <v>12</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="10" t="s">
         <v>66</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="12" t="s">
         <v>5</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="10" t="s">
         <v>8</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="12" t="s">
         <v>6</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
         <v>23</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
         <v>9</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="10" t="s">
         <v>12</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="12" t="s">
         <v>66</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
         <v>5</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>162.72999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="12" t="s">
         <v>8</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="10" t="s">
         <v>6</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="12" t="s">
         <v>23</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
         <v>9</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="12" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
         <v>66</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="12" t="s">
         <v>5</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>160.77000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="10" t="s">
         <v>8</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
         <v>6</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="10" t="s">
         <v>23</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="12" t="s">
         <v>9</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
         <v>12</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="12" t="s">
         <v>66</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="10" t="s">
         <v>5</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>155.47</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
         <v>8</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="10" t="s">
         <v>6</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="12" t="s">
         <v>23</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
         <v>9</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="12" t="s">
         <v>12</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
         <v>66</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="12" t="s">
         <v>5</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>151.9</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="10" t="s">
         <v>8</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="12" t="s">
         <v>6</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
         <v>23</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="12" t="s">
         <v>9</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="10" t="s">
         <v>12</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
         <v>66</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>146.06</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="12" t="s">
         <v>8</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>36.51</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="10" t="s">
         <v>6</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="12" t="s">
         <v>23</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="10" t="s">
         <v>9</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="10" t="s">
         <v>66</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="12" t="s">
         <v>5</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>137.28</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
         <v>8</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="12" t="s">
         <v>6</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="10" t="s">
         <v>23</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>9</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="10" t="s">
         <v>12</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="12" t="s">
         <v>66</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
         <v>5</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="12" t="s">
         <v>8</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
         <v>6</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
         <v>23</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="10" t="s">
         <v>9</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="12" t="s">
         <v>12</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="10" t="s">
         <v>66</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="12" t="s">
         <v>5</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>143.25</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="10" t="s">
         <v>8</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>36.43</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
         <v>23</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="12" t="s">
         <v>9</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
         <v>12</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="12" t="s">
         <v>66</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="10" t="s">
         <v>5</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>143.36000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>8</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="10" t="s">
         <v>6</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="12" t="s">
         <v>23</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
         <v>9</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="12" t="s">
         <v>12</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="10" t="s">
         <v>66</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
         <v>5</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="10" t="s">
         <v>8</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>40.380000000000003</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="12" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="10" t="s">
         <v>23</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="12" t="s">
         <v>9</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
         <v>12</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
         <v>66</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="10" t="s">
         <v>5</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>137.78</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="12" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
         <v>6</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="12" t="s">
         <v>23</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="10" t="s">
         <v>9</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="12" t="s">
         <v>12</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
         <v>66</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>131.86000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
         <v>8</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>40.83</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="12" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="10" t="s">
         <v>23</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>9</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="10" t="s">
         <v>12</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="12" t="s">
         <v>66</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="10" t="s">
         <v>5</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>125.78</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="12" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="10" t="s">
         <v>6</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
         <v>23</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="10" t="s">
         <v>9</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="12" t="s">
         <v>12</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
         <v>66</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="12" t="s">
         <v>5</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>120.92</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
         <v>8</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>34.909999999999997</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="12" t="s">
         <v>6</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="10" t="s">
         <v>23</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="12" t="s">
         <v>9</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
         <v>12</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="12" t="s">
         <v>66</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="10" t="s">
         <v>5</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>113.71</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
         <v>8</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
         <v>6</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="12" t="s">
         <v>23</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="10" t="s">
         <v>9</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="12" t="s">
         <v>12</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="10" t="s">
         <v>66</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>110.58</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="10" t="s">
         <v>8</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="12" t="s">
         <v>6</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
         <v>23</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="12" t="s">
         <v>9</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="10" t="s">
         <v>12</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="12" t="s">
         <v>74</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="10" t="s">
         <v>73</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="12" t="s">
         <v>74</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
         <v>73</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="12" t="s">
         <v>74</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
         <v>73</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
         <v>74</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="10" t="s">
         <v>73</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="12" t="s">
         <v>74</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="10" t="s">
         <v>73</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="12" t="s">
         <v>74</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="10" t="s">
         <v>73</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
         <v>74</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
         <v>73</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>74</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
         <v>73</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="12" t="s">
         <v>74</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="10" t="s">
         <v>73</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="12" t="s">
         <v>74</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="10" t="s">
         <v>73</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="12" t="s">
         <v>74</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
         <v>73</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="12" t="s">
         <v>74</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="10" t="s">
         <v>73</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
         <v>74</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="10" t="s">
         <v>73</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>74</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="10" t="s">
         <v>73</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="12" t="s">
         <v>74</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
         <v>73</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>74</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="10" t="s">
         <v>73</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="12" t="s">
         <v>74</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
         <v>73</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="12" t="s">
         <v>74</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="10" t="s">
         <v>73</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="12" t="s">
         <v>74</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
         <v>73</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="12" t="s">
         <v>74</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
         <v>73</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="12" t="s">
         <v>74</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="10" t="s">
         <v>73</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
         <v>74</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="10" t="s">
         <v>73</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="12" t="s">
         <v>74</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
         <v>73</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="12" t="s">
         <v>74</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="10" t="s">
         <v>73</v>
       </c>
